--- a/data/raw/thirdpostbatch1.xlsx
+++ b/data/raw/thirdpostbatch1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
   <si>
     <t>postCategory</t>
   </si>
@@ -218,16 +218,22 @@
     <t>Fem Guy 💙😻🍆 - 19</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>149321937</t>
   </si>
   <si>
+    <t>Los Angeles, South La Brea and st. Elmo 90019</t>
+  </si>
+  <si>
     <t>Sexy ts new to.los angles visit sexy b are you available not too surehv</t>
   </si>
   <si>
     <t>302</t>
   </si>
   <si>
-    <t>Top heavy shooter ts lee avable 415 5713467</t>
+    <t>Top heavy shooter ts lee avable 415 5713467 - 18</t>
   </si>
   <si>
     <t>117020518</t>
@@ -275,9 +281,6 @@
     <t>(323) 761-9566</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>105131863</t>
   </si>
   <si>
@@ -320,7 +323,10 @@
     <t>Body Worship 🙌🏿 Massage 💆mild or wild Body Loving TONY  11 inch big Black top, dominant and aggressive!  🗣Call or text TONY 786-530-5652</t>
   </si>
   <si>
-    <t>🔥S💨M💨O💨K💨I💨N💨G🔥🖤🔥hot🔝 💣BLK DOM Top 🔝 Str8 💯Hung STUD 11"xxL🏆</t>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>🔥S💨M💨O💨K💨I💨N💨G🔥🖤🔥hot🔝 💣BLK DOM Top 🔝 Str8 💯Hung STUD 11"xxL🏆 - 28</t>
   </si>
   <si>
     <t>149458542</t>
@@ -419,7 +425,7 @@
     <t>142979817</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Offering an Exotic TOP experience that will leave you yearning for more. 10" Thick &amp;amp; Long Snake, Ready to BITE!!! 856--251–3718 MARCO &lt;/b&gt;</t>
+    <t xml:space="preserve">  Offering an Exotic TOP experience that will leave you yearning for more. 10" Thick &amp;amp; Long Snake, Ready to BITE!!! 856--251–3718 MARCO  </t>
   </si>
   <si>
     <t>💦💦💦{HEAVY SHOOTER}10" rock Hard💪🏾🍆ANACONDA🍆HUGE💦💦 Loads💦856-251-3718 MARCO</t>
@@ -494,7 +500,7 @@
     <t>3103256178</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro   &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies &lt;b&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro    GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies    </t>
   </si>
   <si>
     <t>✶ LARGEST SPA in TORRANCE CARSON AND  LOMITA!! ✶ 7 Massage Rooms! ✶ Two Table Showers</t>
@@ -512,7 +518,7 @@
     <t>3236548785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; &lt;i&gt;&lt;/i&gt; &lt;h4 align="justify"&gt;&lt;b&gt;&lt;b&gt;&lt;font color="darkblue" face="Impact" size="+2"&gt; ~❤~ 💟The Heart Of Healthiness is Happiness💟❤ Magical Healing Waits For You With The Newest Youthful Asian Fresh Face or Re~Visit Your Favorite Therapist❤ We have Young But Experienced Asian Ladies To Aid In Your Recovery❤ Our Girls Are Expertly Trained in the Arts of Massage and Science of Rejuvenation❤ Help Her Help You Find Peace❤ Get Relaxation Treatment in our Private &amp;amp; Cozy, Climate Controlled Rooms❤ She Never Rushes Your Therapy❤ She Treats You Well From Your Stressed Out Broken Down Start to Your Smiling Revived Refreshed Renewal❤ You Will Leave Thinking of Your Return To Your Revitalized Life❤ ~❤~&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt;  &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt; &lt;/h1&gt;  &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt;  &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Sunday&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;      &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 minutes ❤ $50/60 minutes&lt;/span&gt;&lt;/span&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/font&gt;  &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;a&gt;&lt;u&gt;FREE Parking In Front OR One Hour FREE Parking Behind Building&lt;/u&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt;  &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;u&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;❤^❤ H2O MASSAGE ❤^❤ ❤ Clean ❤ Comfortable ❤ Private Rooms ❤ Asian  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt; ❤ Swedish ❤ Deep Tissue ❤ Unscented Oil ❤ Soft ❤ Sensual ❤ Acupressure ❤ Massage ❤  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Hot Shower &amp;amp; Table Shower Available ❤ Walking Massage ❤ °•° ❤ ❤ Relaxing Massage Therapy ❤ ❤ Health &amp;amp; Happiness ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt; &lt;/i&gt;&lt;/font&gt;&lt;/i&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">       &lt;h4 align="justify"&gt;  &lt;font color="darkblue" face="Impact" size="+2"&gt; ~❤~ 💟The Heart Of Healthiness is Happiness💟❤ Magical Healing Waits For You With The Newest Youthful Asian Fresh Face or Re~Visit Your Favorite Therapist❤ We have Young But Experienced Asian Ladies To Aid In Your Recovery❤ Our Girls Are Expertly Trained in the Arts of Massage and Science of Rejuvenation❤ Help Her Help You Find Peace❤ Get Relaxation Treatment in our Private &amp;amp; Cozy, Climate Controlled Rooms❤ She Never Rushes Your Therapy❤ She Treats You Well From Your Stressed Out Broken Down Start to Your Smiling Revived Refreshed Renewal❤ You Will Leave Thinking of Your Return To Your Revitalized Life❤ ~❤~&lt;/font&gt;  &lt;/h4&gt;  &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤H2O MASSAGE❤❤❤    &lt;/span&gt; &lt;/h1&gt;  &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;    &lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;     &lt;/span&gt;&lt;/h4&gt;  &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;    Open Monday thru      &lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;     &lt;font color="red"&gt;Sunday&lt;/font&gt;      &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;     &lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;     &lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;    &lt;font color="red"&gt;      &lt;/font&gt;     &lt;/h3&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;          &lt;/span&gt;&lt;b style="font-size:24px;"&gt;    &lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;     &lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;    &lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 minutes ❤ $50/60 minutes&lt;/span&gt;&lt;/span&gt;      &lt;/span&gt;&lt;/p&gt; &lt;/font&gt;  &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      &lt;a&gt; FREE Parking In Front OR One Hour FREE Parking Behind Building &lt;/a&gt;     &lt;/span&gt;&lt;/h3&gt;  &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;      &lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;❤^❤ H2O MASSAGE ❤^❤ ❤ Clean ❤ Comfortable ❤ Private Rooms ❤ Asian  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt; ❤ Swedish ❤ Deep Tissue ❤ Unscented Oil ❤ Soft ❤ Sensual ❤ Acupressure ❤ Massage ❤  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Hot Shower &amp;amp; Table Shower Available ❤ Walking Massage ❤ °•° ❤ ❤ Relaxing Massage Therapy ❤ ❤ Health &amp;amp; Happiness ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt;  &lt;/font&gt;       &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>💞Magic Tension Massage💞 Balance Life💞Youthful Trim Asian Girls 💖Unwind Stress💝</t>
@@ -641,7 +647,7 @@
     <t>Los Angeles, Santa Monica, So.of Santa Monica Blvd, No.of Melrose</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;u&gt;&lt;/u&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(220,20,60);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;🏮Welcome Your Time of Bliss🏮 Find Our Friendly Caring Staff 💖 Lovely Asian Ladies Professionally Trained In Asian Massage Arts Await Your Arrival💖 She Assists Your Rediscovery of Life's Enjoyments❤ Our Asian Girls Are Expertly Trained in the Finer Arts of Asian Massage Therapy❤ All Lovely Licensed, Knowledgeable Experienced Asian Lady Therapists Are Here To Guide Your Escape From Your Hectic Rigorous Day❤ She Never Rushes You❤ She Treats You Right From Stressed Out Start To Refreshed Smiling Finish❤&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt;  &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; </t>
+    <t xml:space="preserve">    &lt;h4 align="justify"&gt; &lt;span style="color:rgb(220,20,60);"&gt;      &lt;font face="Impact" size="+2"&gt;🏮Welcome Your Time of Bliss🏮 Find Our Friendly Caring Staff 💖 Lovely Asian Ladies Professionally Trained In Asian Massage Arts Await Your Arrival💖 She Assists Your Rediscovery of Life's Enjoyments❤ Our Asian Girls Are Expertly Trained in the Finer Arts of Asian Massage Therapy❤ All Lovely Licensed, Knowledgeable Experienced Asian Lady Therapists Are Here To Guide Your Escape From Your Hectic Rigorous Day❤ She Never Rushes You❤ She Treats You Right From Stressed Out Start To Refreshed Smiling Finish❤&lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt;              &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤H2O MASSAGE❤❤❤    &lt;/span&gt;&lt;/h1&gt; </t>
   </si>
   <si>
     <t>💝Tuesday Treat💝 Tension Therapy Massage💆 💞Trim Happy Youthful Asian Girls 💞 Undo Stress</t>
@@ -659,6 +665,9 @@
     <t>MUST SEND A PICTURE NO EXCEPTIONS LIGHT SCREENING ""When you need to release all the stress from your busy day..., Call to book your erotic session    With the most professional charming B2B Provider in Valley    I offer A Warm Fun atmosphere which is so important for me... I like it sensual.. and  Very discreet... Very pleasurable... Easy booking."""..    Blake 818-538-3234</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>Blonde Treasure ❤️Your Elite Private ❤️Massage is Here Call Me !!</t>
   </si>
   <si>
@@ -716,7 +725,7 @@
     <t>LAX, Westside, off 405/105 Freeway, Los Angeles, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt; &lt;center&gt;&lt;font color="red"&gt;&lt;font size="4em"&gt;&lt;b&gt;Stop By And Relax Before Heading Off To Your Next Destination &lt;p&gt; Spend Time with A Independent Person with True Skills and Lots Of Extra Touchest&lt;/p&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;&lt;p&gt; &lt;p&gt; Wouldn’t you like to start or end your travel with a relaxing massage before heading off to your final destination?&lt;p&gt; &lt;p&gt; I have nice warm high-quality products, always fresh clean sheets and a very comfortable massage table and shower available. The room is lit by soft candlelight, and soothing soft music to lull you into a dreamlike state. I had some people asked about draping, now let me also say, I am equally at ease whether you wish to be draped or whether you're more comfortable being totally uncovered. Located just 8 minutes from LAX Airport, with plenty of safe street free parking.&lt;p&gt; I'm trained in many massage specialties, but I bet you would benefit the most from my mixer of Lomi Lomi, Swedish and Deep Tissues to help work out your body stress area.&lt;p&gt; This is a service designed especially for you, but please be aware this IS a private independent facility, I am unable to accommodate walk-in appointment; please schedule your appointment with at least 2-hour notices and available for late night appointment too.&lt;p&gt; &lt;b&gt;&lt;u&gt;OUT-OF-TOWNER&lt;/u&gt;&lt;/b&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve"> &lt;p&gt; &lt;center&gt;&lt;font color="red"&gt;&lt;font size="4em"&gt; Stop By And Relax Before Heading Off To Your Next Destination &lt;p&gt; Spend Time with A Independent Person with True Skills and Lots Of Extra Touchest&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/center&gt;&lt;p&gt; &lt;p&gt; Wouldn’t you like to start or end your travel with a relaxing massage before heading off to your final destination?&lt;p&gt; &lt;p&gt; I have nice warm high-quality products, always fresh clean sheets and a very comfortable massage table and shower available. The room is lit by soft candlelight, and soothing soft music to lull you into a dreamlike state. I had some people asked about draping, now let me also say, I am equally at ease whether you wish to be draped or whether you're more comfortable being totally uncovered. Located just 8 minutes from LAX Airport, with plenty of safe street free parking.&lt;p&gt; I'm trained in many massage specialties, but I bet you would benefit the most from my mixer of Lomi Lomi, Swedish and Deep Tissues to help work out your body stress area.&lt;p&gt; This is a service designed especially for you, but please be aware this IS a private independent facility, I am unable to accommodate walk-in appointment; please schedule your appointment with at least 2-hour notices and available for late night appointment too.&lt;p&gt;   OUT-OF-TOWNER  &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>•⭐️• Traveling To / From LAX Airports for Business or for Pleasures? Lomi Lomi Specialist Available</t>
@@ -908,7 +917,7 @@
     <t>9492957694</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;GRAND OPENING !!! 949-295-7694 100% Class &amp;amp; Naughty girls ONLY @ MI AMOR $40 1/2 Hr ea ~ PIT STOP 9050 SLAUSON AVE PICO RIVERA, 90660 Are you looking for escape to Paradise? CHOOSE AMONG 5 NEW Upscale, Youngest, Body2Body Fun Loving, Sexy girls ready to exceed your wildest desires ♥ 949-295-7694 ♥ &lt;u&gt; ONE BLOCK FROM ROSEMEAD BLVD &amp;amp; SLAUSON AVE&lt;/u&gt; DOWNEY SOUTH GATE BELL GARDENS WHITTIER 605 710 FIRESTONE&lt;/b&gt; </t>
+    <t xml:space="preserve">  GRAND OPENING !!! 949-295-7694 100% Class &amp;amp; Naughty girls ONLY @ MI AMOR $40 1/2 Hr ea ~ PIT STOP 9050 SLAUSON AVE PICO RIVERA, 90660 Are you looking for escape to Paradise? CHOOSE AMONG 5 NEW Upscale, Youngest, Body2Body Fun Loving, Sexy girls ready to exceed your wildest desires ♥ 949-295-7694 ♥   ONE BLOCK FROM ROSEMEAD BLVD &amp;amp; SLAUSON AVE  DOWNEY SOUTH GATE BELL GARDENS WHITTIER 605 710 FIRESTONE  </t>
   </si>
   <si>
     <t>NEW NEW NEW ❤ CHOOSE of 5 NEW ¥OUNG BLONDE Asian LATINA ❤ NAK1D Body2Body FUN ❤ 2 Girl Special</t>
@@ -1058,7 +1067,7 @@
     <t>7146787035</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****&lt;/b&gt; </t>
+    <t xml:space="preserve">  🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****  </t>
   </si>
   <si>
     <t>😘 💋 （๏人 ๏）_ HOT ¥OUNG 😘💋 Nak1d * BODY 2 BODY*♥* Choose YOUR Hotties *♥*😘 💋 🎈 Actual Pics</t>
@@ -1133,7 +1142,7 @@
     <t>7148925511</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;❤ welcome to lotus day spa ❤ Do you have stress and need to get it off! ❤ Come in and let our COLLEGE GIRLS take care of you! And get "FREE TABLE SHOWER' for any hr 👉👉👉let go try now. 🏃🏃🏃 ☎ 714-892-5511 ☎ 7010 katella ave stanton, ca 90680 it's on katella and knott, behind good year&lt;/b&gt; &lt;img border="0" src="http://www.lamkt1.com/jinn/gif/933.gif" width="60%"/&gt;</t>
+    <t xml:space="preserve">  ❤ welcome to lotus day spa ❤ Do you have stress and need to get it off! ❤ Come in and let our COLLEGE GIRLS take care of you! And get "FREE TABLE SHOWER' for any hr 👉👉👉let go try now. 🏃🏃🏃 ☎ 714-892-5511 ☎ 7010 katella ave stanton, ca 90680 it's on katella and knott, behind good year  &lt;img border="0" src="http://www.lamkt1.com/jinn/gif/933.gif" width="60%"/&gt;</t>
   </si>
   <si>
     <t>1100</t>
@@ -1178,7 +1187,7 @@
     <t>5623915404</t>
   </si>
   <si>
-    <t xml:space="preserve">Please book 2hrs in advance.  562-391-5404  5’2  125lbs  32D  Professional gentlemen only: All of my visits are private and discreet. I offer high quality experiences. You will not be disappointed. All of my meetings are lightly screened. Thalia  Call/ text Text: name, home or hotel, duration of visit/session, and what time.  562-391-5404 &lt;u&gt; Check me out on #the#erotic#review# for reviews.&lt;/u&gt; ***please book 2hrs. In advance. &lt;b&gt;id=318223&lt;/b&gt;     Available from 1pm-12am. Monday-Friday. Sometimes on Saturday and Sundays.  </t>
+    <t xml:space="preserve">Please book 2hrs in advance.  562-391-5404  5’2  125lbs  32D  Professional gentlemen only: All of my visits are private and discreet. I offer high quality experiences. You will not be disappointed. All of my meetings are lightly screened. Thalia  Call/ text Text: name, home or hotel, duration of visit/session, and what time.  562-391-5404   Check me out on #the#erotic#review# for reviews.  ***please book 2hrs. In advance.  id=318223      Available from 1pm-12am. Monday-Friday. Sometimes on Saturday and Sundays.  </t>
   </si>
   <si>
     <t>200❤️NO BAIT AND SWITCH💋💋Residence or hotel💋 Outcall ❤️Nuru💋Sexy, Independent and young w/reviews♥️♥️</t>
@@ -1331,7 +1340,7 @@
     <t>1372023 2466502 4135099 1374866 2474971 4136467 4135498 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413646766.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt; &lt;b&gt;&lt;i&gt;Llame para una cita: 323-534-7734 // 323-378-0152 &lt;/i&gt;&lt;/b&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413646766.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt;   Llame para una cita: 323-534-7734 // 323-378-0152   &lt;/center&gt;</t>
   </si>
   <si>
     <t>🍎🍊🍏🍎🍊🍏 🍎🍊🍏🍎🌺🌺 ________________ Open till late: 323-534-7734 _________________ 🌺🌺🍏🍎🍊</t>
@@ -1346,7 +1355,7 @@
     <t>4244883352</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;TOPLESS BODYRUBS+&lt;/b&gt;     &lt;u&gt;&lt;b&gt;Text only&lt;/b&gt;&lt;/u&gt; : (424) 488-3352 ( &lt;i&gt;NO CALLS&lt;/i&gt; !)     &lt;u&gt;&lt;i&gt;Pics are 100% me or it's free!&lt;/i&gt;&lt;/u&gt;    INCALL ONLY, $350/hr    Brenda</t>
+    <t xml:space="preserve">  TOPLESS BODYRUBS+        Text only   : (424) 488-3352 (  NO CALLS  !)       Pics are 100% me or it's free!      INCALL ONLY, $350/hr    Brenda</t>
   </si>
   <si>
     <t>1206</t>
@@ -1379,7 +1388,7 @@
     <t>2133811218 1182909 1182960</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;💖💖———— " NEW MANAGER SPECIAL :&lt;a&gt; HOUR $40 &lt;/a&gt;———💖💖 Happy Hour 5 PM - 8 PM &lt;a&gt;💖💖 PINK ONE SPA 💖💖&lt;/a&gt; ★ PRIVATE ROOM! New Decoration ★ NEW MANAGEMENT! ★ ALL NEW AMAZING STAFF! &lt;b&gt;&lt;a&gt;★———— Call ☎-- 213-381-1218--☎ ———★&lt;/a&gt; 3663 West 3rd St. Los Angels, CA 90026 &lt;a href='https://www.google.com/maps?q=W+3rd+St,+Los+Angeles,+CA+90026&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.071929,-118.290911&amp;amp;spn=0.023355,0.045447&amp;amp;sll=34.069133,-118.296008&amp;amp;sspn=0.011678,0.022724&amp;amp;oq=+W+3rd+St+Los+Angeles,+CA+90026+%E2%80%8E+&amp;amp;hnear=3663+W+3rd+St,+Los+Angeles,+California+90026&amp;amp;t=m&amp;amp;z=15"' target="_blank"&gt;💖———— Map…CLICK ——💖&lt;/a&gt; ‎ Various Massage Techniques. ★———— Open Daily : 11am to 10:30pm / 7 Days a Week ———★ will assure your visit with us is one of TOTAL relaxation! &lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  💖💖———— " NEW MANAGER SPECIAL :&lt;a&gt; HOUR $40 &lt;/a&gt;———💖💖 Happy Hour 5 PM - 8 PM &lt;a&gt;💖💖 PINK ONE SPA 💖💖&lt;/a&gt; ★ PRIVATE ROOM! New Decoration ★ NEW MANAGEMENT! ★ ALL NEW AMAZING STAFF!  &lt;a&gt;★———— Call ☎-- 213-381-1218--☎ ———★&lt;/a&gt; 3663 West 3rd St. Los Angels, CA 90026 &lt;a href='https://www.google.com/maps?q=W+3rd+St,+Los+Angeles,+CA+90026&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.071929,-118.290911&amp;amp;spn=0.023355,0.045447&amp;amp;sll=34.069133,-118.296008&amp;amp;sspn=0.011678,0.022724&amp;amp;oq=+W+3rd+St+Los+Angeles,+CA+90026+%E2%80%8E+&amp;amp;hnear=3663+W+3rd+St,+Los+Angeles,+California+90026&amp;amp;t=m&amp;amp;z=15"' target="_blank"&gt;💖———— Map…CLICK ——💖&lt;/a&gt; ‎ Various Massage Techniques. ★———— Open Daily : 11am to 10:30pm / 7 Days a Week ———★ will assure your visit with us is one of TOTAL relaxation!   </t>
   </si>
   <si>
     <t>Full Body OIL Massage Nice!🎀▂▃▃▂🎀▂▂ 💖💖💖💖 ▬💖【Grand Opening】 💖▬【PINK ONE】 ▬【AMAZING 4 U】▬🎀▂▃▃</t>
@@ -1412,7 +1421,7 @@
     <t>4242623469</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt;Tranquility awaits in a sublime suite made just for you! Send a txt/vm daily for info on a tantalizing time, thanks! &lt;b&gt;(424) 262-3469&lt;/b&gt;&lt;/p&gt; </t>
+    <t xml:space="preserve"> &lt;p&gt;Tranquility awaits in a sublime suite made just for you! Send a txt/vm daily for info on a tantalizing time, thanks!  (424) 262-3469 &lt;/p&gt; </t>
   </si>
   <si>
     <t>923</t>
@@ -1499,7 +1508,7 @@
     <t>1104243970</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤ H2O MASSAGE ❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="10%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;❤ Revive Life 💝☯Bring Your Life Back To Balance☯❤ You Always Win With A Great Massage ❤ Find Your Shelter From The Errors The Game Of Life Throws At You ❤ Find Relief From The Burden Of Stress And Strife ❤ Recover Life With Our Staff Of Youthful Asian Female Therapists❤ Discover Our Rotation of New or Re-visiting Treatment Specialists ❤ She Brings YOU To Your Refuge From Worry And Tension ❤ You Will Find A Youthful Experienced And Caring Lady❤ Prepare Yourself For Pampering With Her Magic Massage Treatment ❤ Our Ladies are Exquisitely Trained in the Arts of Massage and Stress Therapy ❤ Caring Asian Girls Who Never Rush Your Service ❤ She Cares For You From Stress Filled Start to Relaxed Recovery❤ &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;HOURS OF OPERATION&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru Thursday&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; 10:00 AM To 10:00PM &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;u&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/u&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="30%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:18px;line-height:22px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Sensual&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Lovely Caring Ladies&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Clean Comfortable Climate Controlled&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤ H2O MASSAGE ❤❤    &lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="10%"&gt;          &lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;❤ Revive Life 💝☯Bring Your Life Back To Balance☯❤ You Always Win With A Great Massage ❤ Find Your Shelter From The Errors The Game Of Life Throws At You ❤ Find Relief From The Burden Of Stress And Strife ❤ Recover Life With Our Staff Of Youthful Asian Female Therapists❤ Discover Our Rotation of New or Re-visiting Treatment Specialists ❤ She Brings YOU To Your Refuge From Worry And Tension ❤ You Will Find A Youthful Experienced And Caring Lady❤ Prepare Yourself For Pampering With Her Magic Massage Treatment ❤ Our Ladies are Exquisitely Trained in the Arts of Massage and Stress Therapy ❤ Caring Asian Girls Who Never Rush Your Service ❤ She Cares For You From Stress Filled Start to Relaxed Recovery❤ &lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;    HOURS OF OPERATION     &lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;    Open Monday thru Thursday     &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      10:00 AM To 10:00PM      &lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="30%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;     &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;    &lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:18px;line-height:22px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt;      &lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt;      &lt;/p&gt; &lt;ul&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Sensual&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Lovely Caring Ladies&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Clean Comfortable Climate Controlled&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;   &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;  &lt;/p&gt;&lt;/center&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
   </si>
   <si>
     <t>💝Sunday Relaxing💝 Stress Therapy Massage ❤💆❤ Happy Youthful Asian Girls 💞Renew Life💞</t>
@@ -1529,7 +1538,7 @@
     <t>Fairfax Between Santa Monica &amp; Melrose, Los Angeles, Santa Monica</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; &lt;i&gt;&lt;/i&gt; &lt;h4 align="justify"&gt;&lt;b&gt;&lt;b&gt;&lt;font color="darkblue" face="Impact" size="+2"&gt; ~❤~ Welcome To Your Time of Healthy Bliss❤ Magical Healing Waits For You With The Newest Fresh Asian Face or Re~Visit Your Favorite Therapist❤ We have Young But Experienced Staff for Your Enjoyment❤ Our Girls Are Expertly Trained in the Arts of Massage and Science of Rejuvenation❤ Help Her Help You Find Peace While Getting Treatment in our Private &amp;amp; Cozy, Climate Controlled Rooms❤ She Never Rushes Your Service❤ She Treats You Well From Your Stressed Out Broken Down Start to Your Smiling Revived Refreshed Renewal❤ You Will Leave Thinking of Your Return To Your Revitalized Life❤ ~❤~&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt;  &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt; &lt;/h1&gt;  &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt;  &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Sunday&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;      &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 minutes ❤ $50/60 minutes&lt;/span&gt;&lt;/span&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/font&gt;  &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;a&gt;&lt;u&gt;FREE Parking In Front OR One Hour FREE Parking Behind Building&lt;/u&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt;  &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;u&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;❤^❤ H2O MASSAGE ❤^❤ ❤ Clean ❤ Comfortable ❤ Private Rooms ❤ Asian  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt; ❤ Swedish ❤ Deep Tissue ❤ Unscented Oil ❤ Soft ❤ Sensual ❤ Acupressure ❤ Massage ❤  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Hot Shower &amp;amp; Table Shower Available ❤ Walking Massage ❤ °•° ❤ ❤ Relaxing Massage Therapy ❤ ❤ Health &amp;amp; Happiness ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt; &lt;/i&gt;&lt;/font&gt;&lt;/i&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">       &lt;h4 align="justify"&gt;  &lt;font color="darkblue" face="Impact" size="+2"&gt; ~❤~ Welcome To Your Time of Healthy Bliss❤ Magical Healing Waits For You With The Newest Fresh Asian Face or Re~Visit Your Favorite Therapist❤ We have Young But Experienced Staff for Your Enjoyment❤ Our Girls Are Expertly Trained in the Arts of Massage and Science of Rejuvenation❤ Help Her Help You Find Peace While Getting Treatment in our Private &amp;amp; Cozy, Climate Controlled Rooms❤ She Never Rushes Your Service❤ She Treats You Well From Your Stressed Out Broken Down Start to Your Smiling Revived Refreshed Renewal❤ You Will Leave Thinking of Your Return To Your Revitalized Life❤ ~❤~&lt;/font&gt;  &lt;/h4&gt;  &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤H2O MASSAGE❤❤❤    &lt;/span&gt; &lt;/h1&gt;  &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;    &lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;     &lt;/span&gt;&lt;/h4&gt;  &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;    Open Monday thru      &lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;     &lt;font color="red"&gt;Sunday&lt;/font&gt;      &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;     &lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;     &lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;    &lt;font color="red"&gt;      &lt;/font&gt;     &lt;/h3&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;/font&gt; &lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;          &lt;/span&gt;&lt;b style="font-size:24px;"&gt;    &lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;     &lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;    &lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 minutes ❤ $50/60 minutes&lt;/span&gt;&lt;/span&gt;      &lt;/span&gt;&lt;/p&gt; &lt;/font&gt;  &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      &lt;a&gt; FREE Parking In Front OR One Hour FREE Parking Behind Building &lt;/a&gt;     &lt;/span&gt;&lt;/h3&gt;  &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;      &lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;❤^❤ H2O MASSAGE ❤^❤ ❤ Clean ❤ Comfortable ❤ Private Rooms ❤ Asian  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt; ❤ Swedish ❤ Deep Tissue ❤ Unscented Oil ❤ Soft ❤ Sensual ❤ Acupressure ❤ Massage ❤  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Hot Shower &amp;amp; Table Shower Available ❤ Walking Massage ❤ °•° ❤ ❤ Relaxing Massage Therapy ❤ ❤ Health &amp;amp; Happiness ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt;  &lt;/font&gt;       &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>💞Improve Life💝Stress Therapy Massage💝 Happy Youthful  Asian Girls 🎉Celebrate🎉Treat Tension 💖</t>
@@ -2317,16 +2326,16 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -2336,13 +2345,13 @@
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -2359,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -2371,16 +2380,16 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" t="n">
         <v>1431</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -2397,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
@@ -2409,16 +2418,16 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -2435,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
@@ -2447,16 +2456,16 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -2467,16 +2476,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -2485,16 +2494,16 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -2511,10 +2520,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -2523,16 +2532,16 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J15" t="n">
         <v>1707</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -2543,13 +2552,13 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
@@ -2561,16 +2570,16 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2057</v>
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
@@ -2581,16 +2590,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -2599,16 +2608,16 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2625,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -2637,16 +2646,16 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2663,10 +2672,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -2675,16 +2684,16 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J19" t="n">
         <v>1644</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2695,16 +2704,16 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -2713,16 +2722,16 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J20" t="n">
         <v>1754</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -2739,10 +2748,10 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
@@ -2752,13 +2761,13 @@
       </c>
       <c r="H21" t="s"/>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J21" t="n">
         <v>1341</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -2769,16 +2778,16 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2787,16 +2796,16 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J22" t="n">
         <v>1302</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2813,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
         <v>54</v>
@@ -2826,13 +2835,13 @@
       </c>
       <c r="H23" t="s"/>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J23" t="n">
         <v>1557</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2843,13 +2852,13 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -2861,16 +2870,16 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J24" t="n">
         <v>2117</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2881,16 +2890,16 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -2899,16 +2908,16 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2925,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -2937,16 +2946,16 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -2954,7 +2963,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -2963,10 +2972,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -2975,16 +2984,16 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J27" t="n">
         <v>1717</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2992,7 +3001,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
@@ -3001,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
         <v>48</v>
@@ -3013,16 +3022,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J28" t="n">
         <v>1507</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -3030,19 +3039,19 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -3051,16 +3060,16 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J29" t="n">
         <v>1817</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -3077,10 +3086,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -3089,16 +3098,16 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J30" t="n">
         <v>1824</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
@@ -3106,7 +3115,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -3115,28 +3124,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -3144,19 +3153,19 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3165,16 +3174,16 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J32" t="n">
         <v>1516</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3182,37 +3191,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J33" t="n">
         <v>1512</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s">
         <v>23</v>
@@ -3220,19 +3229,19 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -3241,16 +3250,16 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J34" t="n">
         <v>1742</v>
       </c>
       <c r="K34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -3267,10 +3276,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3279,16 +3288,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J35" t="n">
         <v>2204</v>
       </c>
       <c r="K35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3296,19 +3305,19 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -3317,16 +3326,16 @@
         <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J36" t="n">
         <v>2414</v>
       </c>
       <c r="K36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3334,7 +3343,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -3343,10 +3352,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3356,13 +3365,13 @@
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J37" t="n">
         <v>2129</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3370,37 +3379,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1501</v>
+        <v>215</v>
+      </c>
+      <c r="J38" t="s">
+        <v>216</v>
       </c>
       <c r="K38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3408,19 +3417,19 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3429,16 +3438,16 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J39" t="n">
         <v>1718</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3446,7 +3455,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
@@ -3455,10 +3464,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -3467,16 +3476,16 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3484,19 +3493,19 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3505,16 +3514,16 @@
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J41" t="n">
         <v>1759</v>
       </c>
       <c r="K41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3522,7 +3531,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
@@ -3531,10 +3540,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3544,13 +3553,13 @@
       </c>
       <c r="H42" t="s"/>
       <c r="I42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J42" t="n">
         <v>1638</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
@@ -3567,28 +3576,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K43" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -3596,7 +3605,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -3605,10 +3614,10 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F44" t="s">
         <v>48</v>
@@ -3617,16 +3626,16 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J44" t="n">
         <v>1559</v>
       </c>
       <c r="K44" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -3634,7 +3643,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -3643,28 +3652,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J45" t="n">
         <v>1733</v>
       </c>
       <c r="K45" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -3681,10 +3690,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
         <v>48</v>
@@ -3694,13 +3703,13 @@
       </c>
       <c r="H46" t="s"/>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J46" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -3708,19 +3717,19 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3729,16 +3738,16 @@
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I47" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J47" t="n">
         <v>1607</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3746,7 +3755,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -3755,28 +3764,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J48" t="n">
         <v>2450</v>
       </c>
       <c r="K48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3784,7 +3793,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
@@ -3793,10 +3802,10 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F49" t="s">
         <v>48</v>
@@ -3805,16 +3814,16 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I49" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J49" t="n">
         <v>2340</v>
       </c>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -3822,19 +3831,19 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3843,16 +3852,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I50" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J50" t="n">
         <v>1518</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -3860,19 +3869,19 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3881,16 +3890,16 @@
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I51" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J51" t="n">
         <v>1307</v>
       </c>
       <c r="K51" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3898,7 +3907,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -3907,10 +3916,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3920,13 +3929,13 @@
       </c>
       <c r="H52" t="s"/>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J52" t="n">
         <v>1409</v>
       </c>
       <c r="K52" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3934,37 +3943,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E53" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I53" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J53" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K53" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3972,7 +3981,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3981,10 +3990,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3993,16 +4002,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I54" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J54" t="n">
         <v>1323</v>
       </c>
       <c r="K54" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -4010,7 +4019,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -4019,10 +4028,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F55" t="s">
         <v>48</v>
@@ -4032,13 +4041,13 @@
       </c>
       <c r="H55" t="s"/>
       <c r="I55" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J55" t="n">
         <v>2207</v>
       </c>
       <c r="K55" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4046,7 +4055,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -4055,10 +4064,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E56" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
         <v>48</v>
@@ -4067,16 +4076,16 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K56" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -4084,19 +4093,19 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E57" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4105,16 +4114,16 @@
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I57" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J57" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K57" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -4122,7 +4131,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -4131,10 +4140,10 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -4143,16 +4152,16 @@
         <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I58" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J58" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K58" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4160,7 +4169,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
@@ -4169,10 +4178,10 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4181,16 +4190,16 @@
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J59" t="n">
         <v>1312</v>
       </c>
       <c r="K59" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4198,19 +4207,19 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4219,16 +4228,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K60" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4236,7 +4245,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
         <v>52</v>
@@ -4245,10 +4254,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F61" t="s">
         <v>48</v>
@@ -4257,16 +4266,16 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J61" t="n">
         <v>1828</v>
       </c>
       <c r="K61" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4274,7 +4283,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -4283,10 +4292,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4295,16 +4304,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J62" t="n">
         <v>2316</v>
       </c>
       <c r="K62" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4312,19 +4321,19 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E63" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4333,16 +4342,16 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I63" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J63" t="n">
         <v>1910</v>
       </c>
       <c r="K63" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4350,7 +4359,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -4359,10 +4368,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E64" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4371,16 +4380,16 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J64" t="n">
         <v>1322</v>
       </c>
       <c r="K64" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4388,7 +4397,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
         <v>52</v>
@@ -4397,10 +4406,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -4409,16 +4418,16 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I65" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J65" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K65" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4426,7 +4435,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
@@ -4435,10 +4444,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
         <v>48</v>
@@ -4447,16 +4456,16 @@
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I66" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J66" t="n">
         <v>2323</v>
       </c>
       <c r="K66" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4464,19 +4473,19 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4485,16 +4494,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I67" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J67" t="n">
         <v>1632</v>
       </c>
       <c r="K67" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4502,7 +4511,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
         <v>52</v>
@@ -4511,10 +4520,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
         <v>48</v>
@@ -4523,16 +4532,16 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J68" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K68" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -4540,19 +4549,19 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4561,16 +4570,16 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I69" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J69" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K69" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L69" t="s">
         <v>23</v>
@@ -4578,7 +4587,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
@@ -4587,10 +4596,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
@@ -4599,16 +4608,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I70" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J70" t="n">
         <v>2430</v>
       </c>
       <c r="K70" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -4616,7 +4625,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
@@ -4625,26 +4634,26 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E71" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H71" t="s"/>
       <c r="I71" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K71" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -4652,19 +4661,19 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4673,16 +4682,16 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I72" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J72" t="n">
         <v>1819</v>
       </c>
       <c r="K72" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
@@ -4690,19 +4699,19 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4711,16 +4720,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I73" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J73" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K73" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
@@ -4728,19 +4737,19 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4749,16 +4758,16 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I74" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J74" t="n">
         <v>1659</v>
       </c>
       <c r="K74" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -4766,7 +4775,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
         <v>31</v>
@@ -4775,10 +4784,10 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -4788,13 +4797,13 @@
       </c>
       <c r="H75" t="s"/>
       <c r="I75" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J75" t="n">
         <v>2057</v>
       </c>
       <c r="K75" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L75" t="s">
         <v>23</v>
@@ -4802,37 +4811,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E76" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H76" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I76" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="J76" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K76" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -4840,19 +4849,19 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E77" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -4861,16 +4870,16 @@
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I77" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J77" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K77" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L77" t="s">
         <v>23</v>
@@ -4878,19 +4887,19 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E78" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4899,16 +4908,16 @@
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I78" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J78" t="n">
         <v>1636</v>
       </c>
       <c r="K78" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
@@ -4916,7 +4925,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
@@ -4925,28 +4934,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E79" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I79" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J79" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K79" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -4954,19 +4963,19 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E80" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -4975,16 +4984,16 @@
         <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I80" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -4992,19 +5001,19 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E81" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -5013,16 +5022,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J81" t="n">
         <v>2234</v>
       </c>
       <c r="K81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -5030,19 +5039,19 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -5051,16 +5060,16 @@
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I82" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J82" t="n">
         <v>1607</v>
       </c>
       <c r="K82" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -5068,7 +5077,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
         <v>31</v>
@@ -5077,10 +5086,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E83" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -5089,16 +5098,16 @@
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I83" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J83" t="n">
         <v>2104</v>
       </c>
       <c r="K83" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
@@ -5106,7 +5115,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -5115,10 +5124,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E84" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F84" t="s">
         <v>48</v>
@@ -5127,16 +5136,16 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I84" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J84" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K84" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5144,19 +5153,19 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -5165,16 +5174,16 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I85" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J85" t="n">
         <v>1858</v>
       </c>
       <c r="K85" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
@@ -5182,19 +5191,19 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E86" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5203,16 +5212,16 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I86" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="J86" t="n">
         <v>1741</v>
       </c>
       <c r="K86" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
@@ -5220,19 +5229,19 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E87" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5242,13 +5251,13 @@
       </c>
       <c r="H87" t="s"/>
       <c r="I87" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J87" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K87" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5256,7 +5265,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -5265,28 +5274,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E88" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H88" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I88" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J88" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K88" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L88" t="s">
         <v>23</v>
@@ -5294,37 +5303,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I89" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J89" t="n">
         <v>1347</v>
       </c>
       <c r="K89" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5332,7 +5341,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -5341,10 +5350,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E90" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5353,16 +5362,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I90" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J90" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K90" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5370,19 +5379,19 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E91" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -5391,16 +5400,16 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I91" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J91" t="n">
         <v>1934</v>
       </c>
       <c r="K91" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5408,7 +5417,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
@@ -5417,10 +5426,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E92" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -5429,16 +5438,16 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I92" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J92" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K92" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5446,7 +5455,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
@@ -5455,10 +5464,10 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E93" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F93" t="s">
         <v>48</v>
@@ -5467,16 +5476,16 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I93" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="J93" t="n">
         <v>1319</v>
       </c>
       <c r="K93" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
@@ -5484,19 +5493,19 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5505,16 +5514,16 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I94" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J94" t="n">
         <v>2134</v>
       </c>
       <c r="K94" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5522,7 +5531,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
         <v>31</v>
@@ -5531,10 +5540,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5543,16 +5552,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I95" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J95" t="n">
         <v>1914</v>
       </c>
       <c r="K95" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
@@ -5560,19 +5569,19 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E96" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5581,16 +5590,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I96" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J96" t="n">
         <v>1650</v>
       </c>
       <c r="K96" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5598,7 +5607,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -5607,10 +5616,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E97" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5619,16 +5628,16 @@
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I97" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J97" t="n">
         <v>1551</v>
       </c>
       <c r="K97" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
@@ -5636,19 +5645,19 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E98" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5657,16 +5666,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="I98" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J98" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K98" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
@@ -5674,7 +5683,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>
@@ -5683,10 +5692,10 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E99" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F99" t="s">
         <v>48</v>
@@ -5695,16 +5704,16 @@
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J99" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K99" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L99" t="s">
         <v>23</v>
@@ -5712,7 +5721,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -5721,10 +5730,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E100" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -5733,16 +5742,16 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I100" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J100" t="n">
         <v>1748</v>
       </c>
       <c r="K100" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L100" t="s">
         <v>23</v>
@@ -5750,7 +5759,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -5759,28 +5768,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E101" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H101" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I101" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="J101" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K101" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
